--- a/biology/Histoire de la zoologie et de la botanique/Robert_Edwards_Carter_Stearns/Robert_Edwards_Carter_Stearns.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Edwards_Carter_Stearns/Robert_Edwards_Carter_Stearns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Edwards Carter Stearns est un conchyliologiste américain, né le 1er février 1827 à Boston et mort le 27 juillet 1909 à Los Angeles.
 Passionné par l’histoire naturelle dès sa jeunesse, il se consacre à la conchyliologie, surtout sur les mollusques de la côte ouest du continent nord-américain. Il participe à la commission des pêches (1882-1884). Stearns est secrétaire de l’Université de Californie (Berkeley) (1874-1882). Il devient conservateur assistant des mollusques de l’U.S. National Museum of Natural History (1885-1892). Il se marie avec Mary Ann Libby le 28 mars 1850, union dont naîtra une fille.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Courte biographie des Smithsonian Institution Archives de Gerald J. Rosenzweig
 Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)</t>
